--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3802DD40-3174-4B42-84A5-FBDB2E895547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E00CD55-405F-4D6A-8C04-A85921E6ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
+    <workbookView xWindow="31050" yWindow="1395" windowWidth="21600" windowHeight="12975" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Info" sheetId="1" r:id="rId1"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E00CD55-405F-4D6A-8C04-A85921E6ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2B388A-80DC-410C-8BEB-E37C0DA0C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31050" yWindow="1395" windowWidth="21600" windowHeight="12975" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>_Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -118,15 +118,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>방패로 퍼펙트 가드 성공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>좌클릭으로 공격 5회 진행</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>방패 전개 상태에서 공격 3회</t>
+    <t>방패 카운터 어택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패 사용 중 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패 사용 중 가드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,6 +222,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -227,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +253,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6783CB4B-00BA-4C2F-A267-D03CEC02ACB6}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -875,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -889,10 +907,24 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2B388A-80DC-410C-8BEB-E37C0DA0C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0BD75D-8D71-4EDB-AC72-D2DE0701E7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="1395" windowWidth="21600" windowHeight="12975" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>_Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>방패 사용 중 가드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 시선 고정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 시선 고정 해제</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6783CB4B-00BA-4C2F-A267-D03CEC02ACB6}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,63 +719,63 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -775,7 +783,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -789,7 +797,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -803,13 +811,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -817,13 +825,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -834,10 +842,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -845,13 +853,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -859,13 +867,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -873,13 +881,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -887,43 +895,71 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>10</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0BD75D-8D71-4EDB-AC72-D2DE0701E7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D18256-08F4-43D7-89FB-9CA059B029D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Info" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D18256-08F4-43D7-89FB-9CA059B029D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{242E5067-390C-462A-8FF0-0214BA0A9C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Info" sheetId="1" r:id="rId1"/>
@@ -86,14 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>날 기술 사용하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자루 기술 사용하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>더미 그로기 상태로 만들기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,6 +131,14 @@
   </si>
   <si>
     <t>적에게 시선 고정 해제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이블 아츠 날 기술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이블 아츠 자루 기술</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +604,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3">
         <v>5</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242E5067-390C-462A-8FF0-0214BA0A9C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{338390B6-0EE1-4964-83EC-7A4A07AE2102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8FE6536-ABC7-42D8-AE19-7F468DDEA530}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
